--- a/InterviewTest/output/230321/230321_pass.xlsx
+++ b/InterviewTest/output/230321/230321_pass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F80243E-CAD2-4506-B087-D1316019AA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE1B93C-2D3E-47B4-93D1-5B5F1070F60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
     <t>null</t>
   </si>
   <si>
-    <t>Example:  LY_CH: 15.8; VAN_CH: 15.8</t>
+    <t>Example:  LY_CH: 28.05; VAN_CH: 23.8</t>
   </si>
   <si>
     <t>Example:  LY_CH</t>

--- a/InterviewTest/output/230321/230321_pass.xlsx
+++ b/InterviewTest/output/230321/230321_pass.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230321\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Documents\UiPath\MemoAgilityTest\InterviewTest\output\230321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE1B93C-2D3E-47B4-93D1-5B5F1070F60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E838C79-6545-48ED-A52B-10C36749E58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="30750" yWindow="1950" windowWidth="22410" windowHeight="18675" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -542,7 +542,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>39479</v>
+        <v>39449</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" customHeight="1" thickBot="1">

--- a/InterviewTest/output/230321/230321_pass.xlsx
+++ b/InterviewTest/output/230321/230321_pass.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Documents\UiPath\MemoAgilityTest\InterviewTest\output\230321\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E838C79-6545-48ED-A52B-10C36749E58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F1444D-7937-4E98-8D56-435E2D5F04C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30750" yWindow="1950" windowWidth="22410" windowHeight="18675" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
